--- a/TruckDelivery/Documents/Testing/Acceptance Test.xlsx
+++ b/TruckDelivery/Documents/Testing/Acceptance Test.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7db8d14ad41d10d3/CPA/S2/SFT221/Project/TruckDelivery/Documents/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\OOP244_Git\Win23-SFT221-NDD-1\TruckDelivery\Documents\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B60BD7-4E7B-4073-BEA8-8A101A5E37F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E1125-D97F-4959-A1D1-B2F639EDA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64BA469F-F6A1-4D67-A389-C5F37A3E9EA9}"/>
+    <workbookView xWindow="-105" yWindow="10440" windowWidth="19410" windowHeight="10545" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Declaration" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 1" sheetId="19" r:id="rId2"/>
+    <sheet name="Test 2" sheetId="20" r:id="rId3"/>
+    <sheet name="Test 3" sheetId="21" r:id="rId4"/>
+    <sheet name="Test 4" sheetId="22" r:id="rId5"/>
+    <sheet name="Test 5" sheetId="23" r:id="rId6"/>
+    <sheet name="Test 6" sheetId="24" r:id="rId7"/>
+    <sheet name="Test 7" sheetId="26" r:id="rId8"/>
+    <sheet name="Test 8" sheetId="27" r:id="rId9"/>
+    <sheet name="Test 9" sheetId="28" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +44,224 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+  <si>
+    <t>SFT 221</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Section:</t>
+  </si>
+  <si>
+    <t>Authenticity Declaration:
+I declare this submission is the result of my own work and has not been shared with any other student or 3rd party content provider. This submitted piece of work is entirely of my own creation.</t>
+  </si>
+  <si>
+    <t>Test name</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Test Results</t>
+  </si>
+  <si>
+    <t>NDD</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Jaaved Dewan, Brian Cheung, Adrian Bautista, Marcus Brown, Eric Ter-Sarkisov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Bug?</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Testing input to see if it fits business requirements. Following input should trigger size limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid size</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 999 1.1 9P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Program error message matches prediction </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input validation business requirement </t>
+  </si>
+  <si>
+    <t>Input validation business requirement (Normal cont)</t>
+  </si>
+  <si>
+    <t>Testing input to see if it fits business requirements. Following input should trigger weight limit even though weight and size are beyond the limit</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 1001 1.1 9P</t>
+  </si>
+  <si>
+    <t>Invalid weight (must be 1-1000 Kg.)</t>
+  </si>
+  <si>
+    <t>Testing input to see if it fits business requirements. Following input should trigger invalid destination.</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 1000 1.0 9Z</t>
+  </si>
+  <si>
+    <t>Invalid destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing if program can store and pick the shortest path for delivery based on the stored cargo information and truck capacity. </t>
+  </si>
+  <si>
+    <t>Output as expected, business requirement met</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 200 1.0 8Y</t>
+  </si>
+  <si>
+    <t>Ship on GREEN LINE, divert:</t>
+  </si>
+  <si>
+    <t>Route chosen correctly when truck is at or below capacity</t>
+  </si>
+  <si>
+    <t>Path finding - under capacity business requirement(Normal use case)</t>
+  </si>
+  <si>
+    <t>Path finding - over capacity business requirement(Maximum use case)</t>
+  </si>
+  <si>
+    <t>Testing to see program can recognize when truck on shortest path is over capacity and switches delivery route to the second shortest. Expect output to have different routes once one of the limits is reached.</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 200 1.0 8Y
+Enter shipment weight, box size and destination (0 0 x to stop): 801 1.0 8Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter shipment weight, box size and destination (0 0 x to stop): 200 1.0 8Y
+Ship on GREEN LINE, divert:
+Enter shipment weight, box size and destination (0 0 x to stop): 801 1.0 8Y
+Ship on BLUE LINE, divert: </t>
+  </si>
+  <si>
+    <t>Program successfully chose the shortest path when truck is under capacity. Business requirement met.</t>
+  </si>
+  <si>
+    <t>Program successfully diverted the delivery route when the shortest route's truck is over capacity on one of its attributes. Business requirement met.</t>
+  </si>
+  <si>
+    <t>Correctly diverted route.</t>
+  </si>
+  <si>
+    <t>Path finding - diversion(normal use case)</t>
+  </si>
+  <si>
+    <t>Testing to see if the program can determine if a diversion is necessary to complete a delivery. The following input requires no diversion.</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 200 1.0 12L</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 200 1.0 12L
+Ship on BLUE LINE, no diversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program successfully determines if diversion was necessary when it was not. </t>
+  </si>
+  <si>
+    <t>Correctly output diversion</t>
+  </si>
+  <si>
+    <t>Path finding - diversion displayed(normal use case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing to see if program can display a set of diversions that correctly leads to the user inputted destination. </t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 200 1.0 8Y
+Ship on GREEN LINE, divert: 7T, 6U, 7V, 7W, 7X, 8Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program mostly determined all the correct diversion paths that leads to the destination. Some paths are off by a litte. Further improvements can be made. Business requirement mostly met. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The set of diversion received were mostly correct with some mistakes. </t>
+  </si>
+  <si>
+    <t>Some minor bugs needs to be fixed</t>
+  </si>
+  <si>
+    <t>Testing to see if program can display a set of diversions that correctly leads to the user inputted destination, while advoiding other bulidings in the map.</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 100 .5 25B</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 100 .5 25B
+Ship on YELLOW LINE, divert: 19B, 19A, 20A, 21B, 22B, 25B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program advoided the buildings mostly but stopped at the building of the destination and stopped without actually going to the destination point. Diversion accurcy may be poor. Might not be up to business requirements. </t>
+  </si>
+  <si>
+    <t>The set of diversion received were mostly correct until arriving at the destination building where it didn't really reach the destination point, only the destination building and reached the point from there.</t>
+  </si>
+  <si>
+    <t>Possibly a bug or some finer adjustments needed.</t>
+  </si>
+  <si>
+    <t>Diversion Accuracy - Avoiding buildings(normal use case)</t>
+  </si>
+  <si>
+    <t>Diversion Accuracy - equal distances(normal use case)</t>
+  </si>
+  <si>
+    <t>Testing to see what happens when a destination is at a equal distance between two routes.</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 100 .5 14W</t>
+  </si>
+  <si>
+    <t>Enter shipment weight, box size and destination (0 0 x to stop): 100 .5 14W
+Ship on GREEN LINE, divert: 13T, 12U, 11V, 14W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program did pick one of the routes but the diversion of the route was within a building and is a definite bug that needs to be addressed to met business requirements. </t>
+  </si>
+  <si>
+    <t>The program sucessfully picked one of the routes to deliver the cargo but a bug was found where the diversion point starts from within a building.</t>
+  </si>
+  <si>
+    <t>Yes, needs to be addressed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +269,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -62,12 +306,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,7 +493,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -114,7 +505,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -161,23 +552,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -213,23 +587,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,13 +738,1064 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957553F-5341-4160-A0A4-82D3FC188C5B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F3C9CD-5F73-4EA5-8F4C-B6E04B52DC4A}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61924722-0D75-4F1E-8D57-22B9AFF38D7F}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F91D8E0-EF0F-4156-A77F-40F43871CAA6}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BA5EDD-46C3-42C0-98A8-FAEFD0B55497}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7569972F-F81D-4231-8C70-489229E9D248}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249C1705-E2BE-4F34-9A6A-AC67B43C9589}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E656B9-DA9B-4F4A-B0FF-2C5AA8A7857B}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCD1-A1FD-4F47-9252-A722AC4B5D88}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAA6B5E-2D07-404E-B195-3A71716C2632}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100068B9DB3898E1840A1985BE38A336A09" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6986600eeaa410782a35a751b922af63">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b" xmlns:ns3="7db3b190-d1cf-4882-bee6-3064ce691739" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcc5f470bd5cdaad943a5d943b97cad8" ns2:_="" ns3:_="">
+    <xsd:import namespace="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <xsd:import namespace="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="968e675e-7f51-40c4-b007-fcb928a1bb5b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7db3b190-d1cf-4882-bee6-3064ce691739" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f1053aee-29de-48c2-82f4-3c5d5ff217c1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7db3b190-d1cf-4882-bee6-3064ce691739">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7db3b190-d1cf-4882-bee6-3064ce691739" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474F1F35-2E98-4F8D-A6FA-19110723F686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TruckDelivery/Documents/Testing/Acceptance Test.xlsx
+++ b/TruckDelivery/Documents/Testing/Acceptance Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\OOP244_Git\Win23-SFT221-NDD-1\TruckDelivery\Documents\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E1125-D97F-4959-A1D1-B2F639EDA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544A7392-B645-44B5-98C3-FDB132525B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="10440" windowWidth="19410" windowHeight="10545" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="0" windowWidth="16410" windowHeight="14145" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F3C9CD-5F73-4EA5-8F4C-B6E04B52DC4A}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61924722-0D75-4F1E-8D57-22B9AFF38D7F}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1560,6 +1559,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7db3b190-d1cf-4882-bee6-3064ce691739" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100068B9DB3898E1840A1985BE38A336A09" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6986600eeaa410782a35a751b922af63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b" xmlns:ns3="7db3b190-d1cf-4882-bee6-3064ce691739" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcc5f470bd5cdaad943a5d943b97cad8" ns2:_="" ns3:_="">
     <xsd:import namespace="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
@@ -1742,17 +1752,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7db3b190-d1cf-4882-bee6-3064ce691739" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1763,6 +1762,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474F1F35-2E98-4F8D-A6FA-19110723F686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1781,17 +1791,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
